--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1230021.270348495</v>
+        <v>1190057.987409301</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478712</v>
+        <v>8362709.488478714</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>214.0077506398264</v>
       </c>
       <c r="V2" t="n">
-        <v>183.4693513325733</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>110.4285199878827</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>74.0428859370281</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="U4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.21593518981624</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>84.97365353379637</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>203.9986864632803</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="U7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,25 +1180,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>225.4569799644006</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>117.8162772781929</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>255.6835326473243</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>156.8038693308899</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.97626561418339</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1469,7 +1469,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U12" t="n">
         <v>225.8957288909827</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.9561866171907</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>183.4401280146809</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>372.8161228924253</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
         <v>326.1924309016296</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>211.5405650162321</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>73.64690839405421</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>122.9808755242954</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>47.239591316294</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.8864969644867</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>222.8825704588507</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597634</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>126.6860159148357</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>156.5929591752414</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405356</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>70.09267063964604</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>148.4778748279247</v>
+        <v>214.9674945775365</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>173.180788150626</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>57.68170845365354</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>43.76331341951638</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>192.4511255855239</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>47.23959131629395</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>13.08993799274003</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>66.03292463977222</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>162.203841251273</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951638</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>17.44731957864574</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2487,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>71.25280406479352</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>52.22830032617344</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>13.0899379927401</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>39.20444709141393</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>71.02875971050533</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951638</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.6252186004257</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>47.47529300550318</v>
+        <v>7.522223970621249</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>84.36618629683362</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>80.59805326938869</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>90.20595867793512</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>146.5623749521072</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
@@ -3085,10 +3085,10 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>114.6049808239053</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>118.4080809160364</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8957288909827</v>
+        <v>27.47589768952012</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>93.30391114958151</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>59.19197445244085</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>136.9904813845879</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>366.149033285338</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S35" t="n">
-        <v>87.73072894184776</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T36" t="n">
-        <v>104.4814346654893</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
         <v>225.8957288909827</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>38.75267409192734</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>41.64630306148076</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>93.94208935205513</v>
       </c>
       <c r="H38" t="n">
-        <v>91.94671950156075</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>68.39969274597632</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3599,10 +3599,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3677099213027</v>
+        <v>146.3929442844791</v>
       </c>
       <c r="U39" t="n">
         <v>225.8957288909827</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>93.30391114958151</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.1779363007899</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>13.08993799274005</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>105.3251487242023</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>101.6180421345097</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>136.8956207165556</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3836,7 +3836,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T42" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U42" t="n">
-        <v>186.2696514855755</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>183.4401280146811</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>13.08993799274005</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>102.9591804042239</v>
+        <v>190.0063043536055</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,22 +4061,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>111.6321872928792</v>
       </c>
       <c r="E45" t="n">
-        <v>38.78966489179808</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>5.576415288187712</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>108.3027291048317</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>281.7454097505996</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="C2" t="n">
-        <v>281.7454097505996</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="D2" t="n">
-        <v>281.7454097505996</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="E2" t="n">
-        <v>281.7454097505996</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4363,19 +4363,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>737.7960950516754</v>
       </c>
       <c r="V2" t="n">
-        <v>768.6429630387997</v>
+        <v>737.7960950516754</v>
       </c>
       <c r="W2" t="n">
-        <v>525.1941863946997</v>
+        <v>737.7960950516754</v>
       </c>
       <c r="X2" t="n">
-        <v>281.7454097505996</v>
+        <v>737.7960950516754</v>
       </c>
       <c r="Y2" t="n">
-        <v>281.7454097505996</v>
+        <v>737.7960950516754</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>679.0958513775852</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>679.0958513775852</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>679.0958513775852</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>435.6470747334852</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X3" t="n">
-        <v>227.7955745279523</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="4">
@@ -4518,7 +4518,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U4" t="n">
         <v>41.77557929797318</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>333.7844730889342</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X5" t="n">
-        <v>333.7844730889342</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>90.33569644483418</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,13 +4655,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="U6" t="n">
-        <v>461.2466632505798</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="V6" t="n">
-        <v>226.0945550188371</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="W6" t="n">
-        <v>20.03527576299844</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>878.2251822441752</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4755,22 +4755,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>499.3853800778592</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>499.3853800778592</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>255.9366034337592</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.9366034337592</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>466.9379658470897</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
-        <v>466.9379658470897</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>318.0035561858384</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>635.1533028671577</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>635.1533028671577</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y9" t="n">
-        <v>635.1533028671577</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
         <v>41.77557929797318</v>
@@ -5001,13 +5001,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2371.897027894854</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.630833301597</v>
+        <v>1198.477324954441</v>
       </c>
       <c r="D11" t="n">
-        <v>1755.365134694847</v>
+        <v>1198.477324954441</v>
       </c>
       <c r="E11" t="n">
-        <v>1369.576882096602</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F11" t="n">
-        <v>958.5909773069948</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G11" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H11" t="n">
         <v>210.9160074365284</v>
@@ -5041,13 +5041,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5071,22 +5071,22 @@
         <v>2371.897027894854</v>
       </c>
       <c r="T11" t="n">
-        <v>2371.897027894854</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U11" t="n">
-        <v>2371.897027894854</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V11" t="n">
-        <v>2371.897027894854</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="W11" t="n">
-        <v>2371.897027894854</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="X11" t="n">
-        <v>2371.897027894854</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="Y11" t="n">
-        <v>2371.897027894854</v>
+        <v>1567.439841894853</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E12" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
@@ -5126,16 +5126,16 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658747</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N12" t="n">
-        <v>1746.002248079783</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O12" t="n">
-        <v>2158.207869599012</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P12" t="n">
         <v>2440.987626628164</v>
@@ -5144,28 +5144,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T12" t="n">
-        <v>2222.939999577549</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U12" t="n">
-        <v>1994.762495647263</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V12" t="n">
-        <v>1759.610387415521</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W12" t="n">
-        <v>1505.373030687319</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X12" t="n">
-        <v>1297.521530481786</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.761231716832</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="D13" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="E13" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256327</v>
+        <v>204.3310521458872</v>
       </c>
       <c r="G13" t="n">
-        <v>48.81975253256327</v>
+        <v>204.3310521458872</v>
       </c>
       <c r="H13" t="n">
         <v>48.81975253256327</v>
@@ -5208,43 +5208,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>450.1511924226977</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>234.1128111332511</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V13" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W13" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X13" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2440.987626628164</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="C14" t="n">
-        <v>2072.025109687752</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="D14" t="n">
-        <v>1713.759411081001</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="E14" t="n">
-        <v>1327.971158482757</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="F14" t="n">
-        <v>916.9852536931496</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G14" t="n">
         <v>540.4033113775685</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T14" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U14" t="n">
-        <v>2440.987626628164</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V14" t="n">
-        <v>2440.987626628164</v>
+        <v>1684.825390838189</v>
       </c>
       <c r="W14" t="n">
-        <v>2440.987626628164</v>
+        <v>1332.056735568075</v>
       </c>
       <c r="X14" t="n">
-        <v>2440.987626628164</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="Y14" t="n">
-        <v>2440.987626628164</v>
+        <v>958.5909773069948</v>
       </c>
     </row>
     <row r="15">
@@ -5357,13 +5357,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>161.1406371339194</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>540.2677802593126</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M15" t="n">
         <v>1034.670495654875</v>
@@ -5381,28 +5381,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2316.764520037966</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.638169680758</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="C16" t="n">
-        <v>640.638169680758</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="D16" t="n">
-        <v>640.638169680758</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="E16" t="n">
-        <v>640.638169680758</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="F16" t="n">
-        <v>493.7482221828476</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>324.6480070062937</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
         <v>48.81975253256327</v>
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O16" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V16" t="n">
-        <v>640.638169680758</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W16" t="n">
-        <v>640.638169680758</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X16" t="n">
-        <v>640.638169680758</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.638169680758</v>
+        <v>96.53651143791075</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>796.4947224030295</v>
+        <v>1765.682583162419</v>
       </c>
       <c r="C17" t="n">
-        <v>796.4947224030295</v>
+        <v>1765.682583162419</v>
       </c>
       <c r="D17" t="n">
-        <v>796.4947224030295</v>
+        <v>1407.416884555669</v>
       </c>
       <c r="E17" t="n">
-        <v>796.4947224030295</v>
+        <v>1021.628631957424</v>
       </c>
       <c r="F17" t="n">
         <v>796.4947224030295</v>
@@ -5515,13 +5515,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.9660485697323</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977593</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5533,7 +5533,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P17" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q17" t="n">
         <v>2440.987626628164</v>
@@ -5545,22 +5545,22 @@
         <v>2371.897027894854</v>
       </c>
       <c r="T17" t="n">
-        <v>2371.897027894854</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U17" t="n">
-        <v>2243.931355253606</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V17" t="n">
-        <v>1912.868467910035</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="W17" t="n">
-        <v>1560.099812639921</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="X17" t="n">
-        <v>1186.634054378841</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="Y17" t="n">
-        <v>796.4947224030295</v>
+        <v>2152.282423226541</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>921.5458946967642</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C18" t="n">
-        <v>747.0928654156372</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D18" t="n">
-        <v>598.158455754386</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E18" t="n">
-        <v>439.9837495167684</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F18" t="n">
-        <v>293.4491915436533</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G18" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H18" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5597,22 +5597,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404814</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658747</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M18" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.002248079783</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O18" t="n">
-        <v>2158.207869599012</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P18" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
@@ -5624,22 +5624,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2222.939999577549</v>
+        <v>2152.139322163765</v>
       </c>
       <c r="U18" t="n">
-        <v>1994.762495647263</v>
+        <v>1923.961818233479</v>
       </c>
       <c r="V18" t="n">
-        <v>1759.610387415521</v>
+        <v>1688.809710001737</v>
       </c>
       <c r="W18" t="n">
-        <v>1505.373030687319</v>
+        <v>1434.572353273535</v>
       </c>
       <c r="X18" t="n">
-        <v>1297.521530481786</v>
+        <v>1226.720853068002</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.761231716832</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H19" t="n">
         <v>48.81975253256327</v>
@@ -5676,49 +5676,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K19" t="n">
-        <v>93.68771932371197</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L19" t="n">
-        <v>206.6297039190407</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345757</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420811</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801509</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>487.976491396509</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>487.976491396509</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T19" t="n">
-        <v>487.976491396509</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U19" t="n">
-        <v>198.7974038739013</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V19" t="n">
-        <v>198.7974038739013</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W19" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="X19" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1158.255478203622</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="C20" t="n">
-        <v>789.2929612632108</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="D20" t="n">
-        <v>789.2929612632108</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="E20" t="n">
-        <v>789.2929612632108</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F20" t="n">
-        <v>378.3070564736033</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G20" t="n">
         <v>378.3070564736033</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I20" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K20" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
@@ -5773,31 +5773,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q20" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2440.987626628163</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U20" t="n">
-        <v>2266.057537587127</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V20" t="n">
-        <v>1934.994650243556</v>
+        <v>1909.328975998345</v>
       </c>
       <c r="W20" t="n">
-        <v>1934.994650243556</v>
+        <v>1556.560320728231</v>
       </c>
       <c r="X20" t="n">
-        <v>1934.994650243556</v>
+        <v>1183.094562467151</v>
       </c>
       <c r="Y20" t="n">
-        <v>1544.855318267744</v>
+        <v>1183.094562467151</v>
       </c>
     </row>
     <row r="21">
@@ -5807,61 +5807,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.1845715439326</v>
+        <v>735.640995400452</v>
       </c>
       <c r="C21" t="n">
-        <v>547.7315422628056</v>
+        <v>561.187966119325</v>
       </c>
       <c r="D21" t="n">
-        <v>398.7971326015544</v>
+        <v>412.2535564580738</v>
       </c>
       <c r="E21" t="n">
-        <v>239.5596775960989</v>
+        <v>253.0161014526183</v>
       </c>
       <c r="F21" t="n">
-        <v>93.02511962298385</v>
+        <v>253.0161014526183</v>
       </c>
       <c r="G21" t="n">
-        <v>48.81975253256326</v>
+        <v>114.9862139017799</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81975253256326</v>
+        <v>114.9862139017799</v>
       </c>
       <c r="I21" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>48.81975253256326</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339185</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593117</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654874</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.071214692449</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973757</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q21" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
         <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577548</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424717</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U21" t="n">
         <v>1795.401172494432</v>
@@ -5870,13 +5870,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534487</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.160207328955</v>
+        <v>1111.616631185474</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640007</v>
+        <v>903.8563324205199</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C22" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I22" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J22" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K22" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L22" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N22" t="n">
-        <v>2268.276475989486</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O22" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P22" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q22" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R22" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S22" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T22" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U22" t="n">
-        <v>2393.270867722816</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="V22" t="n">
-        <v>2138.586379516929</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="W22" t="n">
-        <v>1849.169209479968</v>
+        <v>62.04191212118957</v>
       </c>
       <c r="X22" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1762.143091250729</v>
+        <v>1158.255478203622</v>
       </c>
       <c r="C23" t="n">
-        <v>1762.143091250729</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="D23" t="n">
-        <v>1403.877392643978</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="E23" t="n">
-        <v>1018.089140045734</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F23" t="n">
-        <v>607.1032352561263</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G23" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H23" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256326</v>
@@ -5995,13 +5995,13 @@
         <v>412.307967997759</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N23" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O23" t="n">
         <v>2037.925350935285</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628163</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="S23" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.708978695599</v>
       </c>
       <c r="T23" t="n">
-        <v>2152.28242322654</v>
+        <v>2095.866714805425</v>
       </c>
       <c r="U23" t="n">
-        <v>2152.28242322654</v>
+        <v>1842.087020817307</v>
       </c>
       <c r="V23" t="n">
-        <v>2152.28242322654</v>
+        <v>1511.024133473737</v>
       </c>
       <c r="W23" t="n">
-        <v>2152.28242322654</v>
+        <v>1158.255478203622</v>
       </c>
       <c r="X23" t="n">
-        <v>2152.28242322654</v>
+        <v>1158.255478203622</v>
       </c>
       <c r="Y23" t="n">
-        <v>1762.143091250729</v>
+        <v>1158.255478203622</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>940.2321985945473</v>
+        <v>722.1845715439326</v>
       </c>
       <c r="C24" t="n">
-        <v>765.7791693134203</v>
+        <v>547.7315422628056</v>
       </c>
       <c r="D24" t="n">
-        <v>616.844759652169</v>
+        <v>398.7971326015544</v>
       </c>
       <c r="E24" t="n">
-        <v>457.6073046467135</v>
+        <v>239.5596775960989</v>
       </c>
       <c r="F24" t="n">
-        <v>311.0727466735985</v>
+        <v>93.02511962298385</v>
       </c>
       <c r="G24" t="n">
-        <v>173.0428591227601</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H24" t="n">
-        <v>66.44330766250846</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256326</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256326</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L24" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654874</v>
       </c>
       <c r="N24" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O24" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.071214692449</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628163</v>
       </c>
       <c r="R24" t="n">
-        <v>2440.987626628163</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
-        <v>2440.987626628163</v>
+        <v>2222.939999577548</v>
       </c>
       <c r="T24" t="n">
-        <v>2241.626303475332</v>
+        <v>2023.578676424717</v>
       </c>
       <c r="U24" t="n">
-        <v>2013.448799545046</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1778.296691313304</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1524.059334585102</v>
+        <v>1306.011707534487</v>
       </c>
       <c r="X24" t="n">
-        <v>1316.207834379569</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>1108.447535614615</v>
+        <v>890.3999085640007</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="C25" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="D25" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E25" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F25" t="n">
-        <v>568.6656403223806</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G25" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H25" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I25" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J25" t="n">
         <v>48.81975253256326</v>
@@ -6177,22 +6177,22 @@
         <v>640.6381696807579</v>
       </c>
       <c r="T25" t="n">
-        <v>640.6381696807579</v>
+        <v>627.4160100921315</v>
       </c>
       <c r="U25" t="n">
-        <v>640.6381696807579</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="V25" t="n">
-        <v>640.6381696807579</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W25" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="X25" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="Y25" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256326</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>951.3892161671761</v>
+        <v>1544.043730801867</v>
       </c>
       <c r="C26" t="n">
-        <v>951.3892161671761</v>
+        <v>1175.081213861455</v>
       </c>
       <c r="D26" t="n">
-        <v>951.3892161671761</v>
+        <v>1175.081213861455</v>
       </c>
       <c r="E26" t="n">
-        <v>951.3892161671761</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F26" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G26" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H26" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256326</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977592</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N26" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O26" t="n">
         <v>2037.925350935285</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628163</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.708978695599</v>
       </c>
       <c r="T26" t="n">
-        <v>1971.003775293976</v>
+        <v>2259.708978695599</v>
       </c>
       <c r="U26" t="n">
-        <v>1717.224081305859</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="V26" t="n">
-        <v>1677.62362969837</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="W26" t="n">
-        <v>1324.854974428256</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="X26" t="n">
-        <v>951.3892161671761</v>
+        <v>1934.183062777679</v>
       </c>
       <c r="Y26" t="n">
-        <v>951.3892161671761</v>
+        <v>1544.043730801867</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439326</v>
       </c>
       <c r="C27" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628056</v>
       </c>
       <c r="D27" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015544</v>
       </c>
       <c r="E27" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960989</v>
       </c>
       <c r="F27" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298385</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256326</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K27" t="n">
-        <v>161.1406371339185</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L27" t="n">
         <v>540.2677802593117</v>
@@ -6329,28 +6329,28 @@
         <v>2440.987626628163</v>
       </c>
       <c r="R27" t="n">
-        <v>2440.987626628163</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
-        <v>2440.987626628163</v>
+        <v>2222.939999577548</v>
       </c>
       <c r="T27" t="n">
-        <v>2241.626303475332</v>
+        <v>2023.578676424717</v>
       </c>
       <c r="U27" t="n">
-        <v>2013.448799545046</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1778.296691313304</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1524.059334585102</v>
+        <v>1306.011707534487</v>
       </c>
       <c r="X27" t="n">
-        <v>1316.207834379569</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640007</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1849.169209479968</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="C28" t="n">
-        <v>1849.169209479968</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="D28" t="n">
-        <v>1849.169209479968</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="E28" t="n">
-        <v>1849.169209479968</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F28" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G28" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H28" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I28" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J28" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K28" t="n">
-        <v>1894.037176271117</v>
+        <v>93.68771932371199</v>
       </c>
       <c r="L28" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N28" t="n">
-        <v>2268.276475989486</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O28" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P28" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q28" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R28" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S28" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T28" t="n">
-        <v>2393.032785208463</v>
+        <v>633.0399636498273</v>
       </c>
       <c r="U28" t="n">
-        <v>2103.853697685855</v>
+        <v>633.0399636498273</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.169209479968</v>
+        <v>633.0399636498273</v>
       </c>
       <c r="W28" t="n">
-        <v>1849.169209479968</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="X28" t="n">
-        <v>1849.169209479968</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="Y28" t="n">
-        <v>1849.169209479968</v>
+        <v>343.6227936128668</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1572.822125467577</v>
+        <v>938.0140410570355</v>
       </c>
       <c r="C29" t="n">
-        <v>1203.859608527166</v>
+        <v>938.0140410570355</v>
       </c>
       <c r="D29" t="n">
-        <v>845.5939099204151</v>
+        <v>938.0140410570355</v>
       </c>
       <c r="E29" t="n">
-        <v>459.8056573221708</v>
+        <v>552.2257884587912</v>
       </c>
       <c r="F29" t="n">
-        <v>48.81975253256326</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
         <v>48.81975253256326</v>
@@ -6463,13 +6463,13 @@
         <v>48.81975253256326</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K29" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L29" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M29" t="n">
         <v>1237.436361307048</v>
@@ -6484,31 +6484,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q29" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R29" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="S29" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="T29" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="U29" t="n">
-        <v>2290.48485287527</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="V29" t="n">
-        <v>1959.421965531699</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="W29" t="n">
-        <v>1959.421965531699</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X29" t="n">
-        <v>1959.421965531699</v>
+        <v>1714.753213096969</v>
       </c>
       <c r="Y29" t="n">
-        <v>1959.421965531699</v>
+        <v>1324.613881121157</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>48.81975253256326</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225003</v>
+        <v>161.1406371339185</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478935</v>
+        <v>540.2677802593117</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654874</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.071214692449</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628163</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2259.339161797923</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="C31" t="n">
-        <v>2090.402978870016</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="D31" t="n">
-        <v>1940.286339457681</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E31" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F31" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G31" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H31" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I31" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J31" t="n">
-        <v>1849.169209479968</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K31" t="n">
-        <v>1894.037176271117</v>
+        <v>93.68771932371199</v>
       </c>
       <c r="L31" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N31" t="n">
-        <v>2268.276475989486</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O31" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P31" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q31" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R31" t="n">
-        <v>2440.987626628163</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S31" t="n">
-        <v>2440.987626628163</v>
+        <v>424.5997883913112</v>
       </c>
       <c r="T31" t="n">
-        <v>2440.987626628163</v>
+        <v>196.8625555144897</v>
       </c>
       <c r="U31" t="n">
-        <v>2440.987626628163</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="V31" t="n">
-        <v>2440.987626628163</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="W31" t="n">
-        <v>2440.987626628163</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="X31" t="n">
-        <v>2440.987626628163</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="Y31" t="n">
-        <v>2440.987626628163</v>
+        <v>48.81975253256326</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1593.268879790881</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="C32" t="n">
-        <v>1593.268879790881</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D32" t="n">
-        <v>1593.268879790881</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E32" t="n">
         <v>1207.480627192637</v>
@@ -6721,31 +6721,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628163</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S32" t="n">
-        <v>2259.708978695599</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T32" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U32" t="n">
-        <v>1924.331767134452</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V32" t="n">
-        <v>1593.268879790881</v>
+        <v>1597.619959168449</v>
       </c>
       <c r="W32" t="n">
-        <v>1593.268879790881</v>
+        <v>1597.619959168449</v>
       </c>
       <c r="X32" t="n">
-        <v>1593.268879790881</v>
+        <v>1597.619959168449</v>
       </c>
       <c r="Y32" t="n">
-        <v>1593.268879790881</v>
+        <v>1207.480627192637</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>882.175553373567</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C33" t="n">
-        <v>707.72252409244</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D33" t="n">
-        <v>558.7881144311888</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E33" t="n">
-        <v>399.5506594257333</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F33" t="n">
-        <v>253.0161014526182</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G33" t="n">
-        <v>114.9862139017798</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256326</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256326</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.071214692449</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628163</v>
@@ -6812,19 +6812,19 @@
         <v>2023.578676424717</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W33" t="n">
-        <v>1466.002689364122</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X33" t="n">
-        <v>1258.151189158589</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y33" t="n">
-        <v>1050.390890393635</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>424.5997883913112</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="C34" t="n">
-        <v>424.5997883913112</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="D34" t="n">
-        <v>424.5997883913112</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="E34" t="n">
-        <v>364.8099152070275</v>
+        <v>492.7250760983648</v>
       </c>
       <c r="F34" t="n">
-        <v>217.9199677091171</v>
+        <v>345.8351286004544</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256326</v>
+        <v>207.4609049796585</v>
       </c>
       <c r="H34" t="n">
         <v>48.81975253256326</v>
@@ -6885,25 +6885,25 @@
         <v>640.6381696807579</v>
       </c>
       <c r="S34" t="n">
-        <v>424.5997883913112</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T34" t="n">
-        <v>424.5997883913112</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U34" t="n">
-        <v>424.5997883913112</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="V34" t="n">
-        <v>424.5997883913112</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="W34" t="n">
-        <v>424.5997883913112</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="X34" t="n">
-        <v>424.5997883913112</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Y34" t="n">
-        <v>424.5997883913112</v>
+        <v>640.6381696807579</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1962.231396731293</v>
+        <v>1584.403935229855</v>
       </c>
       <c r="C35" t="n">
-        <v>1593.268879790881</v>
+        <v>1215.441418289443</v>
       </c>
       <c r="D35" t="n">
-        <v>1593.268879790881</v>
+        <v>1215.441418289443</v>
       </c>
       <c r="E35" t="n">
-        <v>1207.480627192637</v>
+        <v>829.6531656911991</v>
       </c>
       <c r="F35" t="n">
-        <v>796.4947224030295</v>
+        <v>418.6672609015915</v>
       </c>
       <c r="G35" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K35" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O35" t="n">
         <v>2037.925350935285</v>
@@ -6958,31 +6958,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q35" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2440.987626628163</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S35" t="n">
-        <v>2352.370728707105</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T35" t="n">
-        <v>2352.370728707105</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U35" t="n">
-        <v>2352.370728707105</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V35" t="n">
-        <v>2352.370728707105</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W35" t="n">
-        <v>2352.370728707105</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="X35" t="n">
-        <v>2352.370728707105</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="Y35" t="n">
-        <v>1962.231396731293</v>
+        <v>1971.003775293977</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>816.0090920043505</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C36" t="n">
-        <v>641.5560627232235</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D36" t="n">
-        <v>492.6216530619722</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E36" t="n">
-        <v>333.3841980565167</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F36" t="n">
-        <v>186.8496400834017</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G36" t="n">
-        <v>48.81975253256326</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
         <v>112.9860412505444</v>
       </c>
       <c r="K36" t="n">
-        <v>318.2287647883249</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L36" t="n">
-        <v>697.3559079137182</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M36" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N36" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O36" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2440.987626628163</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577548</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T36" t="n">
-        <v>2117.403196885135</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U36" t="n">
-        <v>1889.225692954849</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V36" t="n">
-        <v>1654.073584723107</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W36" t="n">
-        <v>1399.836227994905</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X36" t="n">
-        <v>1191.984727789372</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y36" t="n">
-        <v>984.2244290244184</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>385.953681474871</v>
+        <v>259.9869404984917</v>
       </c>
       <c r="C37" t="n">
-        <v>385.953681474871</v>
+        <v>259.9869404984917</v>
       </c>
       <c r="D37" t="n">
-        <v>385.953681474871</v>
+        <v>259.9869404984917</v>
       </c>
       <c r="E37" t="n">
-        <v>385.953681474871</v>
+        <v>259.9869404984917</v>
       </c>
       <c r="F37" t="n">
-        <v>385.953681474871</v>
+        <v>259.9869404984917</v>
       </c>
       <c r="G37" t="n">
-        <v>346.8095662305</v>
+        <v>90.88672532193777</v>
       </c>
       <c r="H37" t="n">
-        <v>188.1684137834047</v>
+        <v>90.88672532193777</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>93.68771932371199</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
@@ -7119,28 +7119,28 @@
         <v>640.6381696807579</v>
       </c>
       <c r="R37" t="n">
-        <v>640.6381696807579</v>
+        <v>487.976491396509</v>
       </c>
       <c r="S37" t="n">
-        <v>640.6381696807579</v>
+        <v>487.976491396509</v>
       </c>
       <c r="T37" t="n">
-        <v>640.6381696807579</v>
+        <v>487.976491396509</v>
       </c>
       <c r="U37" t="n">
-        <v>640.6381696807579</v>
+        <v>487.976491396509</v>
       </c>
       <c r="V37" t="n">
-        <v>385.953681474871</v>
+        <v>487.976491396509</v>
       </c>
       <c r="W37" t="n">
-        <v>385.953681474871</v>
+        <v>487.976491396509</v>
       </c>
       <c r="X37" t="n">
-        <v>385.953681474871</v>
+        <v>259.9869404984917</v>
       </c>
       <c r="Y37" t="n">
-        <v>385.953681474871</v>
+        <v>259.9869404984917</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>868.9234423237262</v>
+        <v>940.4849092659254</v>
       </c>
       <c r="C38" t="n">
-        <v>499.9609253833145</v>
+        <v>940.4849092659254</v>
       </c>
       <c r="D38" t="n">
-        <v>141.695226776564</v>
+        <v>940.4849092659254</v>
       </c>
       <c r="E38" t="n">
-        <v>141.695226776564</v>
+        <v>554.6966566676811</v>
       </c>
       <c r="F38" t="n">
-        <v>141.695226776564</v>
+        <v>143.7107518780735</v>
       </c>
       <c r="G38" t="n">
-        <v>141.695226776564</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H38" t="n">
         <v>48.81975253256326</v>
@@ -7174,13 +7174,13 @@
         <v>48.81975253256326</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977586</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7201,25 +7201,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T38" t="n">
-        <v>2371.897027894854</v>
+        <v>1971.003775293976</v>
       </c>
       <c r="U38" t="n">
-        <v>2371.897027894854</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V38" t="n">
-        <v>2371.897027894854</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W38" t="n">
-        <v>2019.12837262474</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X38" t="n">
-        <v>1645.66261436366</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="Y38" t="n">
-        <v>1255.523282387848</v>
+        <v>1327.084749330047</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>882.175553373567</v>
+        <v>773.6742338033508</v>
       </c>
       <c r="C39" t="n">
-        <v>707.72252409244</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="D39" t="n">
-        <v>558.7881144311888</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E39" t="n">
-        <v>399.5506594257333</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F39" t="n">
-        <v>253.0161014526182</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G39" t="n">
-        <v>114.9862139017798</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256326</v>
       </c>
       <c r="J39" t="n">
-        <v>81.93751399838786</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>318.2287647883249</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L39" t="n">
-        <v>697.3559079137182</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M39" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.071214692449</v>
       </c>
       <c r="P39" t="n">
-        <v>2440.987626628163</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628163</v>
@@ -7283,22 +7283,22 @@
         <v>2222.939999577548</v>
       </c>
       <c r="T39" t="n">
-        <v>2023.578676424717</v>
+        <v>2075.068338684135</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494432</v>
+        <v>1846.89083475385</v>
       </c>
       <c r="V39" t="n">
-        <v>1560.249064262689</v>
+        <v>1611.738726522107</v>
       </c>
       <c r="W39" t="n">
-        <v>1466.002689364122</v>
+        <v>1357.501369793905</v>
       </c>
       <c r="X39" t="n">
-        <v>1258.151189158589</v>
+        <v>1149.649869588373</v>
       </c>
       <c r="Y39" t="n">
-        <v>1050.390890393635</v>
+        <v>941.8895708234188</v>
       </c>
     </row>
     <row r="40">
@@ -7365,19 +7365,19 @@
         <v>640.6381696807579</v>
       </c>
       <c r="U40" t="n">
-        <v>640.6381696807579</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="V40" t="n">
-        <v>385.953681474871</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W40" t="n">
-        <v>385.953681474871</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="X40" t="n">
-        <v>385.953681474871</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="Y40" t="n">
-        <v>165.1611023313409</v>
+        <v>48.81975253256326</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>954.9699586415231</v>
+        <v>818.0713559289213</v>
       </c>
       <c r="C41" t="n">
-        <v>954.9699586415231</v>
+        <v>818.0713559289213</v>
       </c>
       <c r="D41" t="n">
-        <v>596.7042600347727</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="E41" t="n">
-        <v>210.9160074365284</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I41" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977589</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
@@ -7432,31 +7432,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q41" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R41" t="n">
         <v>2371.897027894854</v>
       </c>
       <c r="S41" t="n">
-        <v>2371.897027894854</v>
+        <v>2265.507988779498</v>
       </c>
       <c r="T41" t="n">
-        <v>2152.282423226541</v>
+        <v>2265.507988779498</v>
       </c>
       <c r="U41" t="n">
-        <v>2049.637936221985</v>
+        <v>2265.507988779498</v>
       </c>
       <c r="V41" t="n">
-        <v>1718.575048878415</v>
+        <v>1934.445101435927</v>
       </c>
       <c r="W41" t="n">
-        <v>1718.575048878415</v>
+        <v>1581.676446165813</v>
       </c>
       <c r="X41" t="n">
-        <v>1345.109290617335</v>
+        <v>1208.210687904733</v>
       </c>
       <c r="Y41" t="n">
-        <v>954.9699586415231</v>
+        <v>818.0713559289213</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>922.6086434646021</v>
+        <v>779.8344674874211</v>
       </c>
       <c r="C42" t="n">
-        <v>748.1556141834751</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D42" t="n">
-        <v>599.2212045222238</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E42" t="n">
-        <v>439.9837495167684</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F42" t="n">
-        <v>293.4491915436533</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G42" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I42" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J42" t="n">
-        <v>81.93751399838814</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>318.2287647883252</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L42" t="n">
-        <v>697.3559079137185</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M42" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O42" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.071214692449</v>
       </c>
       <c r="P42" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q42" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628163</v>
       </c>
       <c r="S42" t="n">
-        <v>2383.337730684675</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T42" t="n">
-        <v>2183.976407531844</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U42" t="n">
-        <v>1995.825244415101</v>
+        <v>1853.05106843792</v>
       </c>
       <c r="V42" t="n">
-        <v>1760.673136183358</v>
+        <v>1617.898960206177</v>
       </c>
       <c r="W42" t="n">
-        <v>1506.435779455157</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X42" t="n">
-        <v>1298.584279249624</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1090.82398048467</v>
+        <v>948.0498045074892</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="G43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="H43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="I43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="J43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="K43" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371199</v>
       </c>
       <c r="L43" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O43" t="n">
-        <v>573.6740222801511</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q43" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R43" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S43" t="n">
-        <v>234.1128111332513</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T43" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U43" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581502</v>
       </c>
       <c r="V43" t="n">
-        <v>48.81975253256327</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="X43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256326</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1207.480627192637</v>
+        <v>1194.235634009152</v>
       </c>
       <c r="C44" t="n">
-        <v>1207.480627192637</v>
+        <v>825.27311706874</v>
       </c>
       <c r="D44" t="n">
-        <v>1207.480627192637</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="E44" t="n">
-        <v>1207.480627192637</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F44" t="n">
-        <v>796.4947224030295</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G44" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
         <v>48.81975253256327</v>
@@ -7648,10 +7648,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540045</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T44" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U44" t="n">
-        <v>2440.987626628164</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V44" t="n">
-        <v>2440.987626628164</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W44" t="n">
-        <v>2088.218971358049</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="X44" t="n">
-        <v>1984.21979923257</v>
+        <v>1194.235634009152</v>
       </c>
       <c r="Y44" t="n">
-        <v>1594.080467256759</v>
+        <v>1194.235634009152</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D45" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E45" t="n">
-        <v>359.6156529128699</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>345.8263394428094</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>345.8263394428094</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F46" t="n">
         <v>48.81975253256327</v>
@@ -7836,22 +7836,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>412.9009368039367</v>
+        <v>635.0054269654171</v>
       </c>
       <c r="U46" t="n">
-        <v>412.9009368039367</v>
+        <v>345.8263394428094</v>
       </c>
       <c r="V46" t="n">
-        <v>158.2164485980498</v>
+        <v>345.8263394428094</v>
       </c>
       <c r="W46" t="n">
-        <v>48.81975253256327</v>
+        <v>345.8263394428094</v>
       </c>
       <c r="X46" t="n">
-        <v>48.81975253256327</v>
+        <v>345.8263394428094</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.81975253256327</v>
+        <v>345.8263394428094</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>434.3429150104481</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.40241131725696</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K15" t="n">
-        <v>74.42821185443506</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>245.6177531937813</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>180.8033201453154</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.40241131725699</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2426449029</v>
+        <v>233.103088273027</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725698</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.27660229194305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>275.6680385918555</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.85469562617064</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K27" t="n">
-        <v>74.42821185443418</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>245.6177531937805</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10193,7 +10193,7 @@
         <v>61.27660229194305</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617064</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854091</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617064</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>233.1030882730265</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854101</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.40241131725698</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>94.72888660085678</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854091</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.40241131725698</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>94.72888660085704</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854091</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928321</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>193.2401765302593</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,13 +23260,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>109.5893591236833</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>225.1265007413719</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66.55691803568395</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>3.098554305433595</v>
       </c>
       <c r="I13" t="n">
         <v>137.955174638333</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>42.01973253337238</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
         <v>286.2872966473816</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,19 +23497,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>41.18966637770666</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>116.2116934539028</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>92.88627525581313</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>35.81287827175935</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>98.18145670663725</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>74.16824395813759</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23712,10 +23712,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>183.9934752828607</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>124.5558811334006</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.052121280159582</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>127.2750392816566</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23907,13 +23907,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.22830032617345</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407328</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>138.0451235086663</v>
+        <v>71.55550375905455</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>78.06110889761027</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>270.0705500164814</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>92.88627525581362</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>13.32185961795358</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>239.0477053310876</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>212.6197173962971</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>347.9728646303598</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>55.21461737035744</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>92.88627525581362</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>48.05747717687868</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24375,19 +24375,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>74.16824395813772</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>212.3699225553132</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>288.547811378721</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>298.7023409679637</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>92.88627525581362</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>48.05747717687871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.4092130247883</v>
@@ -24654,16 +24654,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>177.9845675425501</v>
+        <v>217.937636577432</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>322.5098594448778</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
@@ -24736,19 +24736,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>170.6438437788476</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>56.22800396863406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,13 +24888,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>139.7249216952744</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>136.6369162243309</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>209.3441775540985</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25052,13 +25052,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>198.4198312014626</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>158.3910720113381</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>87.24198819412831</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>30.41873164020046</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
@@ -25125,7 +25125,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
         <v>225.4598605480533</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>47.85675598479401</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>91.73513251139039</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552442</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T36" t="n">
-        <v>92.88627525581343</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>128.656538932861</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.30887157685225</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617344</v>
@@ -25359,7 +25359,7 @@
         <v>37.44704598407327</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>213.8779974765521</v>
@@ -25371,13 +25371,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>320.0636999180768</v>
       </c>
       <c r="H38" t="n">
-        <v>234.2457114000688</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>50.97476563682358</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>158.3910720113381</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.65404388114743</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25605,19 +25605,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>239.047705331088</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
@@ -25648,7 +25648,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>74.14071272903581</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>149.6238549137266</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>35.81287827176013</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>39.62607740540716</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>42.01973253337215</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>239.047705331088</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>266.7719202742451</v>
+        <v>179.7247963248636</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25949,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>35.81287827175959</v>
       </c>
       <c r="E45" t="n">
-        <v>118.8554155636029</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.4092130247883</v>
@@ -26076,16 +26076,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.8834452598656</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>178.2202692317593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672316.9136568705</v>
+        <v>672316.9136568706</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672316.9136568706</v>
+        <v>672316.9136568705</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672316.9136568706</v>
+        <v>672316.9136568705</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672316.9136568704</v>
+        <v>672316.9136568707</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672316.9136568705</v>
+        <v>672316.9136568706</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672316.9136568707</v>
+        <v>672316.9136568705</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672316.9136568706</v>
+        <v>672316.9136568705</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672316.9136568705</v>
+        <v>672316.9136568707</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672316.9136568706</v>
+        <v>672316.9136568704</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672316.9136568705</v>
+        <v>672316.9136568706</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
+        <v>311813.7524761209</v>
+      </c>
+      <c r="F2" t="n">
         <v>311813.7524761211</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>311813.7524761209</v>
       </c>
-      <c r="G2" t="n">
-        <v>311813.752476121</v>
-      </c>
       <c r="H2" t="n">
+        <v>311813.7524761212</v>
+      </c>
+      <c r="I2" t="n">
+        <v>311813.7524761209</v>
+      </c>
+      <c r="J2" t="n">
         <v>311813.7524761208</v>
-      </c>
-      <c r="I2" t="n">
-        <v>311813.7524761208</v>
-      </c>
-      <c r="J2" t="n">
-        <v>311813.7524761209</v>
       </c>
       <c r="K2" t="n">
         <v>311813.7524761208</v>
       </c>
       <c r="L2" t="n">
+        <v>311813.7524761209</v>
+      </c>
+      <c r="M2" t="n">
         <v>311813.7524761208</v>
-      </c>
-      <c r="M2" t="n">
-        <v>311813.7524761209</v>
       </c>
       <c r="N2" t="n">
         <v>311813.7524761208</v>
       </c>
       <c r="O2" t="n">
-        <v>311813.7524761207</v>
+        <v>311813.7524761208</v>
       </c>
       <c r="P2" t="n">
-        <v>311813.7524761209</v>
+        <v>311813.7524761211</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312595.3744187171</v>
+        <v>312595.3744187172</v>
       </c>
       <c r="C4" t="n">
         <v>312595.3744187171</v>
@@ -26450,7 +26450,7 @@
         <v>35595.99830849798</v>
       </c>
       <c r="M4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
       <c r="N4" t="n">
         <v>35595.99830849798</v>
@@ -26484,10 +26484,10 @@
         <v>44136.03802033842</v>
       </c>
       <c r="G5" t="n">
-        <v>44136.03802033841</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="H5" t="n">
-        <v>44136.03802033841</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
         <v>44136.03802033841</v>
@@ -26502,13 +26502,13 @@
         <v>44136.03802033841</v>
       </c>
       <c r="M5" t="n">
-        <v>44136.03802033841</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
         <v>44136.03802033841</v>
       </c>
       <c r="O5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033841</v>
       </c>
       <c r="P5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30452.94295793644</v>
+        <v>30452.94295793639</v>
       </c>
       <c r="C6" t="n">
         <v>111222.3744894842</v>
       </c>
       <c r="D6" t="n">
-        <v>111222.3744894844</v>
+        <v>111222.3744894841</v>
       </c>
       <c r="E6" t="n">
-        <v>-137353.5829854954</v>
+        <v>-144322.5075592278</v>
       </c>
       <c r="F6" t="n">
-        <v>232081.7161472845</v>
+        <v>225112.7915735524</v>
       </c>
       <c r="G6" t="n">
-        <v>232081.7161472846</v>
+        <v>225112.7915735523</v>
       </c>
       <c r="H6" t="n">
-        <v>232081.7161472844</v>
+        <v>225112.7915735526</v>
       </c>
       <c r="I6" t="n">
-        <v>232081.7161472844</v>
+        <v>225112.7915735524</v>
       </c>
       <c r="J6" t="n">
-        <v>169021.7735481783</v>
+        <v>162052.8489744459</v>
       </c>
       <c r="K6" t="n">
-        <v>232081.7161472844</v>
+        <v>225112.7915735521</v>
       </c>
       <c r="L6" t="n">
-        <v>232081.7161472845</v>
+        <v>225112.7915735522</v>
       </c>
       <c r="M6" t="n">
-        <v>140067.4708661914</v>
+        <v>133098.546292459</v>
       </c>
       <c r="N6" t="n">
-        <v>232081.7161472844</v>
+        <v>225112.7915735522</v>
       </c>
       <c r="O6" t="n">
-        <v>232081.7161472843</v>
+        <v>225112.7915735521</v>
       </c>
       <c r="P6" t="n">
-        <v>232081.7161472846</v>
+        <v>225112.7915735524</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>322.6158759445108</v>
       </c>
       <c r="G3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="H3" t="n">
         <v>322.6158759445107</v>
@@ -26776,7 +26776,7 @@
         <v>322.6158759445107</v>
       </c>
       <c r="O3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="P3" t="n">
         <v>322.6158759445108</v>
@@ -26807,7 +26807,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="H4" t="n">
-        <v>610.2469066570408</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
         <v>610.2469066570408</v>
@@ -26822,13 +26822,13 @@
         <v>610.2469066570408</v>
       </c>
       <c r="M4" t="n">
-        <v>610.2469066570408</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
         <v>610.2469066570408</v>
       </c>
       <c r="O4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.2469066570408</v>
       </c>
       <c r="P4" t="n">
         <v>610.2469066570409</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>37.33790226801005</v>
       </c>
       <c r="V2" t="n">
-        <v>144.2829071375616</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>89.73620870693888</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>177.6520972238915</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27590,10 +27590,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>119.7495544039028</v>
       </c>
       <c r="U4" t="n">
-        <v>178.1229943321122</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>346.5179064736643</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27669,13 +27669,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.18418061884677</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>47.6962966976393</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>213.1087345205756</v>
       </c>
       <c r="U7" t="n">
-        <v>178.1229943321122</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182.5730085546286</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,19 +27934,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>26.23800319651903</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>87.95670792528455</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>40.41943799383367</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31773,7 +31773,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31785,13 +31785,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
@@ -31861,10 +31861,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778304</v>
@@ -31873,7 +31873,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
         <v>10.13860056042011</v>
@@ -31952,7 +31952,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P16" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H17" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.0005972154804</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K17" t="n">
-        <v>164.9766803203077</v>
+        <v>164.9766803203078</v>
       </c>
       <c r="L17" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M17" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O17" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P17" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q17" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517334</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S17" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500884</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1037558596002445</v>
+        <v>0.1037558596002446</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806457</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847289</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I18" t="n">
-        <v>23.89183609589065</v>
+        <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472363</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K18" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
-        <v>150.6707447040849</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
-        <v>180.4792342229579</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O18" t="n">
-        <v>165.1032398336025</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P18" t="n">
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876453</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R18" t="n">
-        <v>43.08443716858957</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T18" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.581766333670429</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815272</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I19" t="n">
-        <v>17.49530028892527</v>
+        <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049933</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280074</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223816</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M19" t="n">
-        <v>91.1945171952655</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613034</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188939</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501259</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R19" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T19" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H41" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K41" t="n">
         <v>164.9766803203078</v>
       </c>
       <c r="L41" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M41" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O41" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P41" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q41" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S41" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T41" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H42" t="n">
-        <v>6.701888290847292</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K42" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L42" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34231,19 +34231,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876454</v>
       </c>
       <c r="R42" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T42" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I43" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K43" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L43" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P43" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R43" t="n">
-        <v>26.15832987576312</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S43" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T43" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35257,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
         <v>269.032241846492</v>
@@ -35418,7 +35418,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.3966822177399</v>
+        <v>468.0345334781882</v>
       </c>
       <c r="N12" t="n">
         <v>528.4798964831782</v>
@@ -35506,7 +35506,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>48.64100594280298</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
-        <v>382.95671022767</v>
+        <v>257.7341181179921</v>
       </c>
       <c r="M15" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471579</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L17" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909529</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N17" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O17" t="n">
-        <v>369.2231584563176</v>
+        <v>369.2231584563177</v>
       </c>
       <c r="P17" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q17" t="n">
         <v>130.0651205780292</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.81443304846577</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L18" t="n">
-        <v>382.9567102276699</v>
+        <v>192.9196850695263</v>
       </c>
       <c r="M18" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
-        <v>416.3693146658876</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691789</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N19" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O19" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K21" t="n">
-        <v>113.4554389912679</v>
+        <v>207.3158823613949</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009465</v>
@@ -36445,7 +36445,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.3966822177399</v>
+        <v>309.3596570595955</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.45228430891365</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.81443304846579</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>48.6410059428021</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L27" t="n">
-        <v>382.95671022767</v>
+        <v>257.7341181179913</v>
       </c>
       <c r="M27" t="n">
         <v>499.3966822177399</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009465</v>
+        <v>113.4554389912679</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891365</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009465</v>
@@ -37159,7 +37159,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250338</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891365</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>64.81443304846579</v>
       </c>
       <c r="K36" t="n">
-        <v>207.3158823613944</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
@@ -37396,7 +37396,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>33.45228430891373</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009465</v>
@@ -37633,7 +37633,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250338</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471585</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L41" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M41" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N41" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O41" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P41" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q41" t="n">
         <v>130.0651205780292</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>33.45228430891401</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250338</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M43" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N43" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O43" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M44" t="n">
-        <v>446.9000637909527</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N44" t="n">
         <v>439.3515785419015</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38113,10 +38113,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P45" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1190057.987409301</v>
+        <v>1225376.742735069</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914466</v>
+        <v>426806.9758914464</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>214.0077506398264</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -791,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>74.0428859370281</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>40.47627913313511</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,13 +992,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.97365353379637</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>103.6736513724527</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>55.71194092525318</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,25 +1183,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>65.59445268283726</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>148.5527042308418</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>117.8162772781929</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>108.1960350243787</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>156.8038693308899</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>218.4779553980958</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.18674943245854</v>
       </c>
       <c r="S12" t="n">
-        <v>17.44731957864654</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
         <v>197.3677099213027</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.9561866171907</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>337.21149379705</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>211.5405650162321</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.64690839405421</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>47.239591316294</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>19.27450492738156</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>222.8825704588507</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
         <v>217.4184586216305</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>70.09267063964604</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>229.9534998249121</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>102.6287258350842</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>214.9674945775365</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>245.2934538479313</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
         <v>217.4184586216305</v>
@@ -2140,13 +2140,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>57.68170845365354</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>74.40951513808766</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552442</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>192.4511255855239</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>132.3661152307033</v>
       </c>
       <c r="U22" t="n">
         <v>286.2872966473816</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>13.08993799274003</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>162.203841251273</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
         <v>251.2418970482362</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>193.4738994701424</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2408,16 +2408,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>43.76331341951638</v>
+        <v>17.79417311172712</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>13.0899379927401</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>134.7307170396223</v>
       </c>
     </row>
     <row r="26">
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
         <v>251.2418970482362</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>174.9086536208566</v>
       </c>
       <c r="X26" t="n">
-        <v>71.02875971050533</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>43.76331341951638</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>7.522223970621249</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>47.47529300550314</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>84.36618629683362</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.005789270132</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>31.18931817999748</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>43.76331341951638</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>146.5623749521072</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>13.08993799274016</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>164.6539808313297</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>118.4080809160364</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0.4026817847173583</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>57.07339698405355</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>27.47589768952012</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2.302520646659404</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>136.9904813845879</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>366.149033285338</v>
+        <v>128.9944022153426</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>179.4658614532381</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
-        <v>17.44731957864654</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
         <v>197.3677099213027</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>41.64630306148076</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>221.8945316016867</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>93.94208935205513</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597632</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>27.18189894884222</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T39" t="n">
-        <v>146.3929442844791</v>
+        <v>70.09267063964604</v>
       </c>
       <c r="U39" t="n">
         <v>225.8957288909827</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>13.08993799274005</v>
+        <v>221.8945316016867</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>339.8727868836434</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>105.3251487242023</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>136.8956207165556</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>35.33191364804597</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>8.509561448016434</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>13.08993799274005</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>23.15675026214627</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.005789270132</v>
@@ -4033,16 +4033,16 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>190.0063043536055</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>111.6321872928792</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4073,10 +4073,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>56.02127570389403</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8957288909827</v>
@@ -4143,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>5.576415288187712</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>139.715735810525</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>494.3473184075753</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
-        <v>494.3473184075753</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>494.3473184075753</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>494.3473184075753</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>737.7960950516754</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>737.7960950516754</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W2" t="n">
-        <v>737.7960950516754</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X2" t="n">
-        <v>737.7960950516754</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y2" t="n">
-        <v>737.7960950516754</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F5" t="n">
-        <v>72.23626279480629</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4603,16 +4603,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>315.6850394389064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>878.2251822441752</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="C6" t="n">
-        <v>703.7721529630483</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="D6" t="n">
-        <v>554.837743301797</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E6" t="n">
-        <v>395.6002882963414</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F6" t="n">
-        <v>249.0657303232264</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>878.2251822441752</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>878.2251822441752</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>878.2251822441752</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>878.2251822441752</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="V6" t="n">
-        <v>878.2251822441752</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="W6" t="n">
-        <v>878.2251822441752</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="X6" t="n">
-        <v>878.2251822441752</v>
+        <v>657.1497008972277</v>
       </c>
       <c r="Y6" t="n">
-        <v>878.2251822441752</v>
+        <v>657.1497008972277</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4755,22 +4755,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>559.1338160830064</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>502.8591282797204</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>559.1338160830064</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>281.7454097505996</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,25 +4907,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>814.0039189138263</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="X9" t="n">
-        <v>570.4639408291474</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y9" t="n">
         <v>362.7036420641935</v>
@@ -4944,7 +4944,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
         <v>41.77557929797318</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1567.439841894853</v>
+        <v>1316.856675913745</v>
       </c>
       <c r="C11" t="n">
-        <v>1198.477324954441</v>
+        <v>1316.856675913745</v>
       </c>
       <c r="D11" t="n">
-        <v>1198.477324954441</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="E11" t="n">
-        <v>1040.089578155562</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="F11" t="n">
-        <v>629.1036733659547</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G11" t="n">
-        <v>210.9160074365284</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H11" t="n">
         <v>210.9160074365284</v>
@@ -5041,13 +5041,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>2152.282423226541</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U11" t="n">
-        <v>1898.502729238423</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V11" t="n">
-        <v>1567.439841894853</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="W11" t="n">
-        <v>1567.439841894853</v>
+        <v>1537.541479346165</v>
       </c>
       <c r="X11" t="n">
-        <v>1567.439841894853</v>
+        <v>1537.541479346165</v>
       </c>
       <c r="Y11" t="n">
-        <v>1567.439841894853</v>
+        <v>1316.856675913745</v>
       </c>
     </row>
     <row r="12">
@@ -5120,13 +5120,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658748</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M12" t="n">
         <v>1191.758623309281</v>
@@ -5144,28 +5144,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2440.987626628164</v>
+        <v>2415.546465585276</v>
       </c>
       <c r="S12" t="n">
-        <v>2423.364071498218</v>
+        <v>2255.14873447815</v>
       </c>
       <c r="T12" t="n">
-        <v>2224.002748345386</v>
+        <v>2055.787411325319</v>
       </c>
       <c r="U12" t="n">
-        <v>1995.825244415101</v>
+        <v>1827.609907395033</v>
       </c>
       <c r="V12" t="n">
-        <v>1760.673136183358</v>
+        <v>1592.45779916329</v>
       </c>
       <c r="W12" t="n">
-        <v>1506.435779455157</v>
+        <v>1338.220442435089</v>
       </c>
       <c r="X12" t="n">
-        <v>1298.584279249624</v>
+        <v>1130.368942229556</v>
       </c>
       <c r="Y12" t="n">
-        <v>1090.82398048467</v>
+        <v>922.6086434646021</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>204.3310521458872</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>204.3310521458872</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
         <v>48.81975253256327</v>
@@ -5232,19 +5232,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>640.6381696807582</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V13" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W13" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X13" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>958.5909773069948</v>
+        <v>1129.910631765282</v>
       </c>
       <c r="C14" t="n">
-        <v>958.5909773069948</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="D14" t="n">
-        <v>958.5909773069948</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="E14" t="n">
-        <v>958.5909773069948</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F14" t="n">
-        <v>958.5909773069948</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>2152.282423226541</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U14" t="n">
-        <v>1898.502729238423</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V14" t="n">
-        <v>1684.825390838189</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W14" t="n">
-        <v>1332.056735568075</v>
+        <v>1503.376390026361</v>
       </c>
       <c r="X14" t="n">
-        <v>958.5909773069948</v>
+        <v>1129.910631765282</v>
       </c>
       <c r="Y14" t="n">
-        <v>958.5909773069948</v>
+        <v>1129.910631765282</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F15" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G15" t="n">
         <v>48.81975253256327</v>
@@ -5357,19 +5357,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M15" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N15" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O15" t="n">
         <v>1970.07121469245</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C16" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
         <v>48.81975253256327</v>
@@ -5469,19 +5469,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V16" t="n">
-        <v>385.9536814748714</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W16" t="n">
-        <v>96.53651143791075</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X16" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.53651143791075</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1765.682583162419</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="C17" t="n">
-        <v>1765.682583162419</v>
+        <v>1951.534578397632</v>
       </c>
       <c r="D17" t="n">
-        <v>1407.416884555669</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="E17" t="n">
-        <v>1021.628631957424</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F17" t="n">
         <v>796.4947224030295</v>
@@ -5515,7 +5515,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
         <v>412.307967997759</v>
@@ -5542,25 +5542,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T17" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U17" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V17" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W17" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="X17" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="Y17" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>850.7452172829803</v>
+        <v>744.1456658227286</v>
       </c>
       <c r="C18" t="n">
-        <v>676.2921880018533</v>
+        <v>569.6926365416016</v>
       </c>
       <c r="D18" t="n">
-        <v>527.3577783406021</v>
+        <v>420.7582268803504</v>
       </c>
       <c r="E18" t="n">
-        <v>368.1203233351466</v>
+        <v>261.5207718748949</v>
       </c>
       <c r="F18" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H18" t="n">
         <v>114.9862139017798</v>
@@ -5594,25 +5594,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L18" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M18" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
@@ -5624,22 +5624,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2152.139322163765</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U18" t="n">
-        <v>1923.961818233479</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V18" t="n">
-        <v>1688.809710001737</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W18" t="n">
-        <v>1434.572353273535</v>
+        <v>1327.972801813283</v>
       </c>
       <c r="X18" t="n">
-        <v>1226.720853068002</v>
+        <v>1120.12130160775</v>
       </c>
       <c r="Y18" t="n">
-        <v>1018.960554303048</v>
+        <v>912.3610028427966</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>207.4609049796586</v>
+        <v>536.9727900493598</v>
       </c>
       <c r="C19" t="n">
-        <v>207.4609049796586</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="D19" t="n">
-        <v>207.4609049796586</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E19" t="n">
-        <v>207.4609049796586</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F19" t="n">
-        <v>207.4609049796586</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G19" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>424.5997883913116</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>424.5997883913116</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U19" t="n">
-        <v>424.5997883913116</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V19" t="n">
-        <v>424.5997883913116</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W19" t="n">
-        <v>207.4609049796586</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X19" t="n">
-        <v>207.4609049796586</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.4609049796586</v>
+        <v>640.638169680758</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>796.4947224030295</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="C20" t="n">
-        <v>796.4947224030295</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D20" t="n">
-        <v>796.4947224030295</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E20" t="n">
-        <v>796.4947224030295</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F20" t="n">
         <v>796.4947224030295</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697323</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977593</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5779,25 +5779,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T20" t="n">
-        <v>2221.37302195985</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U20" t="n">
-        <v>1967.593327971733</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V20" t="n">
-        <v>1909.328975998345</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W20" t="n">
-        <v>1556.560320728231</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="X20" t="n">
-        <v>1183.094562467151</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="Y20" t="n">
-        <v>1183.094562467151</v>
+        <v>1455.251792695598</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>735.640995400452</v>
+        <v>957.3366797756757</v>
       </c>
       <c r="C21" t="n">
-        <v>561.187966119325</v>
+        <v>782.8836504945488</v>
       </c>
       <c r="D21" t="n">
-        <v>412.2535564580738</v>
+        <v>633.9492408332975</v>
       </c>
       <c r="E21" t="n">
-        <v>253.0161014526183</v>
+        <v>474.711785827842</v>
       </c>
       <c r="F21" t="n">
-        <v>253.0161014526183</v>
+        <v>328.177227854727</v>
       </c>
       <c r="G21" t="n">
-        <v>114.9862139017799</v>
+        <v>190.1473403038886</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017799</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5834,22 +5834,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>318.2287647883253</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L21" t="n">
-        <v>697.3559079137186</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M21" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N21" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O21" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P21" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5867,16 +5867,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1541.163815766231</v>
       </c>
       <c r="X21" t="n">
-        <v>1111.616631185474</v>
+        <v>1333.312315560698</v>
       </c>
       <c r="Y21" t="n">
-        <v>903.8563324205199</v>
+        <v>1125.552016795744</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C22" t="n">
         <v>48.81975253256327</v>
@@ -5925,37 +5925,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O22" t="n">
-        <v>573.6740222801509</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P22" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807579</v>
+        <v>506.9350229830779</v>
       </c>
       <c r="U22" t="n">
-        <v>351.4590821581502</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="V22" t="n">
-        <v>351.4590821581502</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="W22" t="n">
-        <v>62.04191212118957</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="X22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1158.255478203622</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="C23" t="n">
-        <v>789.2929612632108</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="D23" t="n">
-        <v>789.2929612632108</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="E23" t="n">
-        <v>789.2929612632108</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="F23" t="n">
-        <v>378.3070564736033</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G23" t="n">
-        <v>378.3070564736033</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256326</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K23" t="n">
         <v>412.307967997759</v>
@@ -6010,31 +6010,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q23" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.987626628163</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2259.708978695599</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T23" t="n">
-        <v>2095.866714805425</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U23" t="n">
-        <v>1842.087020817307</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V23" t="n">
-        <v>1511.024133473737</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="W23" t="n">
-        <v>1158.255478203622</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="X23" t="n">
-        <v>1158.255478203622</v>
+        <v>1019.243005341766</v>
       </c>
       <c r="Y23" t="n">
-        <v>1158.255478203622</v>
+        <v>629.1036733659547</v>
       </c>
     </row>
     <row r="24">
@@ -6044,61 +6044,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439326</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628056</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015544</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960989</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298385</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256326</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256326</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404814</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.670495654874</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
         <v>1557.865593173221</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.071214692449</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973757</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q24" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
         <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.939999577548</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424717</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
         <v>1795.401172494432</v>
@@ -6107,13 +6107,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534487</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
         <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640007</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K25" t="n">
-        <v>93.68771932371199</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L25" t="n">
         <v>206.6297039190408</v>
@@ -6162,37 +6162,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O25" t="n">
-        <v>573.6740222801509</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P25" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R25" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S25" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T25" t="n">
-        <v>627.4160100921315</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U25" t="n">
-        <v>338.2369225695239</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V25" t="n">
-        <v>338.2369225695239</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="W25" t="n">
-        <v>48.81975253256326</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256326</v>
+        <v>184.9113859059191</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1544.043730801867</v>
+        <v>1540.548673608024</v>
       </c>
       <c r="C26" t="n">
-        <v>1175.081213861455</v>
+        <v>1540.548673608024</v>
       </c>
       <c r="D26" t="n">
-        <v>1175.081213861455</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="E26" t="n">
-        <v>789.2929612632108</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F26" t="n">
-        <v>378.3070564736033</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G26" t="n">
         <v>378.3070564736033</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
         <v>412.307967997759</v>
@@ -6247,31 +6247,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q26" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628163</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2259.708978695599</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T26" t="n">
-        <v>2259.708978695599</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U26" t="n">
-        <v>2005.929284707482</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V26" t="n">
-        <v>2005.929284707482</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W26" t="n">
-        <v>2005.929284707482</v>
+        <v>1540.548673608024</v>
       </c>
       <c r="X26" t="n">
-        <v>1934.183062777679</v>
+        <v>1540.548673608024</v>
       </c>
       <c r="Y26" t="n">
-        <v>1544.043730801867</v>
+        <v>1540.548673608024</v>
       </c>
     </row>
     <row r="27">
@@ -6281,61 +6281,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439326</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628056</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015544</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960989</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>93.02511962298385</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
         <v>285.1110033225003</v>
       </c>
       <c r="L27" t="n">
-        <v>540.2677802593117</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M27" t="n">
-        <v>1034.670495654874</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.071214692449</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973757</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q27" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
         <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577548</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424717</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
         <v>1795.401172494432</v>
@@ -6344,13 +6344,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534487</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
         <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640007</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>343.6227936128668</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C28" t="n">
-        <v>343.6227936128668</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D28" t="n">
-        <v>343.6227936128668</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E28" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H28" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K28" t="n">
-        <v>93.68771932371199</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L28" t="n">
         <v>206.6297039190408</v>
@@ -6399,37 +6399,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O28" t="n">
-        <v>573.6740222801509</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P28" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R28" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S28" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T28" t="n">
-        <v>633.0399636498273</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U28" t="n">
-        <v>633.0399636498273</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V28" t="n">
-        <v>633.0399636498273</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="W28" t="n">
-        <v>343.6227936128668</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="X28" t="n">
-        <v>343.6227936128668</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y28" t="n">
-        <v>343.6227936128668</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>938.0140410570355</v>
+        <v>1632.744092790253</v>
       </c>
       <c r="C29" t="n">
-        <v>938.0140410570355</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D29" t="n">
-        <v>938.0140410570355</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E29" t="n">
-        <v>552.2257884587912</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F29" t="n">
         <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K29" t="n">
-        <v>412.3079679977592</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L29" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M29" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N29" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O29" t="n">
         <v>2037.925350935285</v>
@@ -6484,31 +6484,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q29" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628163</v>
+        <v>2409.483264830186</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628163</v>
+        <v>2409.483264830186</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628163</v>
+        <v>2409.483264830186</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628163</v>
+        <v>2409.483264830186</v>
       </c>
       <c r="V29" t="n">
-        <v>2440.987626628163</v>
+        <v>2409.483264830186</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.218971358049</v>
+        <v>2409.483264830186</v>
       </c>
       <c r="X29" t="n">
-        <v>1714.753213096969</v>
+        <v>2409.483264830186</v>
       </c>
       <c r="Y29" t="n">
-        <v>1324.613881121157</v>
+        <v>2019.343932854375</v>
       </c>
     </row>
     <row r="30">
@@ -6518,61 +6518,61 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439326</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628056</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D30" t="n">
-        <v>398.7971326015544</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E30" t="n">
-        <v>239.5596775960989</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F30" t="n">
-        <v>93.02511962298385</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>161.1406371339185</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L30" t="n">
-        <v>540.2677802593117</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654874</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N30" t="n">
         <v>1557.865593173221</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.071214692449</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973757</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q30" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
         <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577548</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424717</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
         <v>1795.401172494432</v>
@@ -6581,13 +6581,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534487</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X30" t="n">
         <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640007</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J31" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K31" t="n">
-        <v>93.68771932371199</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L31" t="n">
         <v>206.6297039190408</v>
@@ -6636,37 +6636,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O31" t="n">
-        <v>573.6740222801509</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P31" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R31" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S31" t="n">
-        <v>424.5997883913112</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T31" t="n">
-        <v>196.8625555144897</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U31" t="n">
-        <v>48.81975253256326</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V31" t="n">
-        <v>48.81975253256326</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W31" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X31" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1207.480627192637</v>
+        <v>1328.153373032848</v>
       </c>
       <c r="C32" t="n">
-        <v>1207.480627192637</v>
+        <v>959.1908560924364</v>
       </c>
       <c r="D32" t="n">
-        <v>1207.480627192637</v>
+        <v>600.925157485686</v>
       </c>
       <c r="E32" t="n">
-        <v>1207.480627192637</v>
+        <v>215.1369048874417</v>
       </c>
       <c r="F32" t="n">
-        <v>796.4947224030295</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G32" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
         <v>145.9660485697319</v>
@@ -6706,46 +6706,46 @@
         <v>412.307967997759</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N32" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O32" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V32" t="n">
-        <v>1597.619959168449</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W32" t="n">
-        <v>1597.619959168449</v>
+        <v>2088.21897135805</v>
       </c>
       <c r="X32" t="n">
-        <v>1597.619959168449</v>
+        <v>1714.75321309697</v>
       </c>
       <c r="Y32" t="n">
-        <v>1207.480627192637</v>
+        <v>1714.75321309697</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>922.6086434646021</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C33" t="n">
-        <v>748.1556141834751</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D33" t="n">
-        <v>599.2212045222238</v>
+        <v>559.1948637086811</v>
       </c>
       <c r="E33" t="n">
-        <v>439.9837495167684</v>
+        <v>399.9574087032256</v>
       </c>
       <c r="F33" t="n">
-        <v>293.4491915436533</v>
+        <v>253.4228507301105</v>
       </c>
       <c r="G33" t="n">
-        <v>155.4193039928149</v>
+        <v>115.3929631792721</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256326</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
         <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404814</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658747</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N33" t="n">
         <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.071214692449</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973757</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q33" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
         <v>2383.337730684675</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577548</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424717</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U33" t="n">
-        <v>1995.825244415101</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V33" t="n">
-        <v>1760.673136183358</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W33" t="n">
-        <v>1506.435779455157</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X33" t="n">
-        <v>1298.584279249624</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y33" t="n">
-        <v>1090.82398048467</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C34" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D34" t="n">
-        <v>640.6381696807579</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E34" t="n">
-        <v>492.7250760983648</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8351286004544</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G34" t="n">
-        <v>207.4609049796585</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K34" t="n">
-        <v>93.68771932371199</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
@@ -6873,37 +6873,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O34" t="n">
-        <v>573.6740222801509</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P34" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q34" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R34" t="n">
-        <v>640.6381696807579</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="S34" t="n">
-        <v>640.6381696807579</v>
+        <v>271.9381101070625</v>
       </c>
       <c r="T34" t="n">
-        <v>640.6381696807579</v>
+        <v>271.9381101070625</v>
       </c>
       <c r="U34" t="n">
-        <v>640.6381696807579</v>
+        <v>271.9381101070625</v>
       </c>
       <c r="V34" t="n">
-        <v>640.6381696807579</v>
+        <v>271.9381101070625</v>
       </c>
       <c r="W34" t="n">
-        <v>640.6381696807579</v>
+        <v>271.9381101070625</v>
       </c>
       <c r="X34" t="n">
-        <v>640.6381696807579</v>
+        <v>271.9381101070625</v>
       </c>
       <c r="Y34" t="n">
-        <v>640.6381696807579</v>
+        <v>51.14553096353237</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1584.403935229855</v>
+        <v>1263.355201987353</v>
       </c>
       <c r="C35" t="n">
-        <v>1215.441418289443</v>
+        <v>894.3926850469411</v>
       </c>
       <c r="D35" t="n">
-        <v>1215.441418289443</v>
+        <v>894.3926850469411</v>
       </c>
       <c r="E35" t="n">
-        <v>829.6531656911991</v>
+        <v>508.6044324486969</v>
       </c>
       <c r="F35" t="n">
-        <v>418.6672609015915</v>
+        <v>508.6044324486969</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H35" t="n">
         <v>48.81975253256327</v>
@@ -6937,10 +6937,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697323</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977593</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
         <v>795.0052981540048</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T35" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U35" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V35" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W35" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="X35" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="Y35" t="n">
-        <v>1971.003775293977</v>
+        <v>1649.955042051474</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C36" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D36" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E36" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F36" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G36" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H36" t="n">
         <v>48.81975253256327</v>
@@ -7016,52 +7016,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404814</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S36" t="n">
-        <v>2423.364071498218</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T36" t="n">
-        <v>2224.002748345386</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>1995.825244415101</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V36" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W36" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X36" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>259.9869404984917</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C37" t="n">
-        <v>259.9869404984917</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D37" t="n">
-        <v>259.9869404984917</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E37" t="n">
-        <v>259.9869404984917</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F37" t="n">
-        <v>259.9869404984917</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
-        <v>90.88672532193777</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
-        <v>90.88672532193777</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
         <v>48.81975253256327</v>
@@ -7110,37 +7110,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O37" t="n">
-        <v>573.6740222801509</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P37" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R37" t="n">
-        <v>487.976491396509</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S37" t="n">
-        <v>487.976491396509</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T37" t="n">
-        <v>487.976491396509</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U37" t="n">
-        <v>487.976491396509</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V37" t="n">
-        <v>487.976491396509</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W37" t="n">
-        <v>487.976491396509</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X37" t="n">
-        <v>259.9869404984917</v>
+        <v>416.5022791740038</v>
       </c>
       <c r="Y37" t="n">
-        <v>259.9869404984917</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>940.4849092659254</v>
+        <v>1194.235634009152</v>
       </c>
       <c r="C38" t="n">
-        <v>940.4849092659254</v>
+        <v>825.27311706874</v>
       </c>
       <c r="D38" t="n">
-        <v>940.4849092659254</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="E38" t="n">
-        <v>554.6966566676811</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F38" t="n">
-        <v>143.7107518780735</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H38" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K38" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O38" t="n">
         <v>2037.925350935285</v>
@@ -7195,31 +7195,31 @@
         <v>2312.223157255914</v>
       </c>
       <c r="Q38" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
         <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T38" t="n">
-        <v>1971.003775293976</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U38" t="n">
-        <v>1717.224081305859</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V38" t="n">
-        <v>1717.224081305859</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W38" t="n">
-        <v>1717.224081305859</v>
+        <v>2344.440564310165</v>
       </c>
       <c r="X38" t="n">
-        <v>1717.224081305859</v>
+        <v>1970.974806049085</v>
       </c>
       <c r="Y38" t="n">
-        <v>1327.084749330047</v>
+        <v>1580.835474073273</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>773.6742338033508</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C39" t="n">
-        <v>599.2212045222238</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D39" t="n">
-        <v>599.2212045222238</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E39" t="n">
-        <v>439.9837495167684</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F39" t="n">
-        <v>293.4491915436533</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G39" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256326</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
         <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>349.2772920404814</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
         <v>728.4044351658747</v>
@@ -7268,37 +7268,37 @@
         <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.071214692449</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973757</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
         <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.939999577548</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2075.068338684135</v>
+        <v>2152.139322163765</v>
       </c>
       <c r="U39" t="n">
-        <v>1846.89083475385</v>
+        <v>1923.961818233479</v>
       </c>
       <c r="V39" t="n">
-        <v>1611.738726522107</v>
+        <v>1688.809710001737</v>
       </c>
       <c r="W39" t="n">
-        <v>1357.501369793905</v>
+        <v>1434.572353273535</v>
       </c>
       <c r="X39" t="n">
-        <v>1149.649869588373</v>
+        <v>1226.720853068002</v>
       </c>
       <c r="Y39" t="n">
-        <v>941.8895708234188</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.81975253256326</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81975253256326</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D40" t="n">
-        <v>48.81975253256326</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E40" t="n">
-        <v>48.81975253256326</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I40" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>93.68771932371199</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L40" t="n">
         <v>206.6297039190408</v>
@@ -7347,37 +7347,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O40" t="n">
-        <v>573.6740222801509</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P40" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q40" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R40" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S40" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T40" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U40" t="n">
-        <v>351.4590821581502</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V40" t="n">
-        <v>338.2369225695239</v>
+        <v>416.5022791740038</v>
       </c>
       <c r="W40" t="n">
-        <v>48.81975253256326</v>
+        <v>416.5022791740038</v>
       </c>
       <c r="X40" t="n">
-        <v>48.81975253256326</v>
+        <v>416.5022791740038</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.81975253256326</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.0713559289213</v>
+        <v>1194.235634009152</v>
       </c>
       <c r="C41" t="n">
-        <v>818.0713559289213</v>
+        <v>825.27311706874</v>
       </c>
       <c r="D41" t="n">
-        <v>459.8056573221708</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="E41" t="n">
-        <v>459.8056573221708</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F41" t="n">
-        <v>48.81975253256326</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I41" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977589</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q41" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2265.507988779498</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>2265.507988779498</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U41" t="n">
-        <v>2265.507988779498</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V41" t="n">
-        <v>1934.445101435927</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="W41" t="n">
-        <v>1581.676446165813</v>
+        <v>1537.541479346165</v>
       </c>
       <c r="X41" t="n">
-        <v>1208.210687904733</v>
+        <v>1537.541479346165</v>
       </c>
       <c r="Y41" t="n">
-        <v>818.0713559289213</v>
+        <v>1537.541479346165</v>
       </c>
     </row>
     <row r="42">
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>779.8344674874211</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C42" t="n">
-        <v>641.5560627232235</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D42" t="n">
-        <v>492.6216530619722</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E42" t="n">
-        <v>333.3841980565167</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F42" t="n">
-        <v>186.8496400834017</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G42" t="n">
-        <v>48.81975253256326</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256326</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I42" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
         <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404814</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658747</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.071214692449</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973757</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q42" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2440.987626628163</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
         <v>2280.589895521037</v>
@@ -7523,10 +7523,10 @@
         <v>2081.228572368206</v>
       </c>
       <c r="U42" t="n">
-        <v>1853.05106843792</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V42" t="n">
-        <v>1617.898960206177</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W42" t="n">
         <v>1363.661603477976</v>
@@ -7535,7 +7535,7 @@
         <v>1155.810103272443</v>
       </c>
       <c r="Y42" t="n">
-        <v>948.0498045074892</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256326</v>
+        <v>204.3052166446317</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256326</v>
+        <v>204.3052166446317</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256326</v>
+        <v>204.3052166446317</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256326</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G43" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H43" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I43" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J43" t="n">
-        <v>48.81975253256326</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K43" t="n">
-        <v>93.68771932371199</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L43" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O43" t="n">
-        <v>573.6740222801509</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P43" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>351.4590821581502</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V43" t="n">
-        <v>338.2369225695239</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W43" t="n">
-        <v>48.81975253256326</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="X43" t="n">
-        <v>48.81975253256326</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.81975253256326</v>
+        <v>385.9536814748714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1194.235634009152</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C44" t="n">
-        <v>825.27311706874</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D44" t="n">
-        <v>467.0074184619895</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E44" t="n">
-        <v>467.0074184619895</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F44" t="n">
         <v>467.0074184619895</v>
@@ -7681,19 +7681,19 @@
         <v>1971.003775293977</v>
       </c>
       <c r="U44" t="n">
-        <v>1717.224081305859</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V44" t="n">
-        <v>1386.161193962289</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="W44" t="n">
-        <v>1386.161193962289</v>
+        <v>1287.172232680292</v>
       </c>
       <c r="X44" t="n">
-        <v>1194.235634009152</v>
+        <v>1287.172232680292</v>
       </c>
       <c r="Y44" t="n">
-        <v>1194.235634009152</v>
+        <v>1287.172232680292</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>779.8344674874215</v>
+        <v>979.1957906402527</v>
       </c>
       <c r="C45" t="n">
-        <v>605.3814382062945</v>
+        <v>804.7427613591257</v>
       </c>
       <c r="D45" t="n">
-        <v>492.6216530619722</v>
+        <v>655.8083516978744</v>
       </c>
       <c r="E45" t="n">
-        <v>333.3841980565167</v>
+        <v>496.5708966924189</v>
       </c>
       <c r="F45" t="n">
-        <v>186.8496400834017</v>
+        <v>350.0363387193039</v>
       </c>
       <c r="G45" t="n">
-        <v>48.81975253256327</v>
+        <v>212.0064511684655</v>
       </c>
       <c r="H45" t="n">
-        <v>48.81975253256327</v>
+        <v>105.4068997082138</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>81.93751399838814</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>318.2287647883252</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>697.3559079137185</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
-        <v>1714.953720827627</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7757,22 +7757,22 @@
         <v>2280.589895521037</v>
       </c>
       <c r="T45" t="n">
-        <v>2081.228572368206</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="U45" t="n">
-        <v>1853.051068437921</v>
+        <v>2052.412391590752</v>
       </c>
       <c r="V45" t="n">
-        <v>1617.898960206178</v>
+        <v>1817.260283359009</v>
       </c>
       <c r="W45" t="n">
-        <v>1363.661603477976</v>
+        <v>1563.022926630807</v>
       </c>
       <c r="X45" t="n">
-        <v>1155.810103272443</v>
+        <v>1355.171426425275</v>
       </c>
       <c r="Y45" t="n">
-        <v>948.0498045074896</v>
+        <v>1147.411127660321</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>345.8263394428094</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="C46" t="n">
-        <v>345.8263394428094</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="D46" t="n">
-        <v>195.7097000304736</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E46" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S46" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T46" t="n">
-        <v>635.0054269654171</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="U46" t="n">
-        <v>345.8263394428094</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="V46" t="n">
-        <v>345.8263394428094</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="W46" t="n">
-        <v>345.8263394428094</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="X46" t="n">
-        <v>345.8263394428094</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="Y46" t="n">
-        <v>345.8263394428094</v>
+        <v>346.8494855272921</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,10 +8546,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>434.3429150104481</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>245.6177531937813</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>180.8033201453154</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>233.103088273027</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.40241131725698</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>275.6680385918555</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194305</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>245.6177531937805</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194305</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K30" t="n">
-        <v>139.2426449029</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>245.6177531937815</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443506</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>289.3053491854091</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.3053491854101</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>289.3053491854091</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>289.3053491854091</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003852</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>94.72888660085704</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>225.1265007413719</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>167.7599832579578</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>31.886647551595</v>
       </c>
       <c r="S12" t="n">
-        <v>141.3464342174082</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>3.098554305433595</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
         <v>137.955174638333</v>
@@ -23472,10 +23472,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>28.06139797395758</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>116.2116934539028</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.88627525581313</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H15" t="n">
         <v>105.5335559456492</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>98.18145670663725</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.4092130247883</v>
@@ -23709,16 +23709,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>212.6197173962968</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>345.998386843626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>183.9934752828607</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>127.2750392816566</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>21.74148333600749</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>77.20325434685309</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
         <v>137.955174638333</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
         <v>225.4598605480533</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>71.55550375905455</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>137.4403878155493</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597632</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>270.0705500164814</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>31.12404080756151</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>13.32185961795358</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24150,7 +24150,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407327</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24180,7 +24180,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>93.09374531735</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>212.6197173962971</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>55.21461737035744</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>176.2572012083266</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581362</v>
+        <v>118.8554155636029</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J25" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407327</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24417,22 +24417,22 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>212.3699225553132</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>83.85393631247248</v>
       </c>
     </row>
     <row r="26">
@@ -24445,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597632</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>174.3323150965564</v>
       </c>
       <c r="X26" t="n">
-        <v>298.7023409679637</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>92.88627525581362</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552442</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.4092130247883</v>
@@ -24624,7 +24624,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J28" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407327</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24654,19 +24654,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>217.937636577432</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>178.234362383534</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>322.5098594448778</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597632</v>
+        <v>37.21037456597883</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>92.88627525581362</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552442</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407327</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>139.7249216952744</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310879</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>242.2220649103817</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>209.3441775540985</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.1308741609318</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>198.4198312014626</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>177.5294595352779</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,22 +25083,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>30.41873164020046</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J34" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407327</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.4598605480533</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>47.85675598479401</v>
+        <v>285.0113870547893</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552442</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>141.3464342174082</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25323,19 +25323,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>96.30887157685225</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407327</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
         <v>213.8779974765521</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>3.815123787350501</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0636999180768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>322.0590697685708</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>50.97476563682358</v>
+        <v>127.2750392816566</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.4092130247883</v>
@@ -25572,7 +25572,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407327</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R40" t="n">
         <v>151.1350615014064</v>
@@ -25605,19 +25605,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>239.047705331088</v>
+        <v>30.24311172214135</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>42.86105477983716</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>74.14071272903581</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2418970482362</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>35.81287827176013</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>70.2016422976032</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>137.9244011985527</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.4092130247883</v>
@@ -25809,7 +25809,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407327</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
@@ -25842,13 +25842,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>239.047705331088</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>359.5770914013343</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>179.7247963248636</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>35.81287827175959</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>9.483521051630376</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.4092130247883</v>
@@ -26070,16 +26070,16 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>219.8834452598656</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>85.99391957851211</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672316.9136568706</v>
+        <v>672316.9136568705</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672316.9136568705</v>
+        <v>672316.9136568706</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672316.9136568705</v>
+        <v>672316.9136568706</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672316.9136568706</v>
+        <v>672316.9136568707</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672316.9136568705</v>
+        <v>672316.9136568706</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672316.9136568705</v>
+        <v>672316.9136568704</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672316.9136568705</v>
+        <v>672316.9136568706</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672316.9136568707</v>
+        <v>672316.9136568706</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672316.9136568704</v>
+        <v>672316.9136568706</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672316.9136568704</v>
+        <v>672316.9136568705</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672316.9136568706</v>
+        <v>672316.9136568708</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>311813.7524761209</v>
       </c>
       <c r="F2" t="n">
+        <v>311813.7524761209</v>
+      </c>
+      <c r="G2" t="n">
         <v>311813.7524761211</v>
       </c>
-      <c r="G2" t="n">
-        <v>311813.7524761209</v>
-      </c>
       <c r="H2" t="n">
+        <v>311813.7524761211</v>
+      </c>
+      <c r="I2" t="n">
+        <v>311813.752476121</v>
+      </c>
+      <c r="J2" t="n">
         <v>311813.7524761212</v>
-      </c>
-      <c r="I2" t="n">
-        <v>311813.7524761209</v>
-      </c>
-      <c r="J2" t="n">
-        <v>311813.7524761208</v>
       </c>
       <c r="K2" t="n">
         <v>311813.7524761208</v>
       </c>
       <c r="L2" t="n">
-        <v>311813.7524761209</v>
+        <v>311813.7524761208</v>
       </c>
       <c r="M2" t="n">
         <v>311813.7524761208</v>
       </c>
       <c r="N2" t="n">
-        <v>311813.7524761208</v>
+        <v>311813.7524761209</v>
       </c>
       <c r="O2" t="n">
         <v>311813.7524761208</v>
       </c>
       <c r="P2" t="n">
-        <v>311813.7524761211</v>
+        <v>311813.7524761209</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.24528109308</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="C4" t="n">
         <v>312595.3744187171</v>
@@ -26435,7 +26435,7 @@
         <v>35595.99830849798</v>
       </c>
       <c r="H4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
       <c r="I4" t="n">
         <v>35595.99830849798</v>
@@ -26450,16 +26450,16 @@
         <v>35595.99830849798</v>
       </c>
       <c r="M4" t="n">
+        <v>35595.99830849798</v>
+      </c>
+      <c r="N4" t="n">
         <v>35595.99830849799</v>
-      </c>
-      <c r="N4" t="n">
-        <v>35595.99830849798</v>
       </c>
       <c r="O4" t="n">
         <v>35595.99830849798</v>
       </c>
       <c r="P4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
     </row>
     <row r="5">
@@ -26490,25 +26490,25 @@
         <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
-        <v>44136.03802033841</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="J5" t="n">
-        <v>44136.03802033841</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="K5" t="n">
-        <v>44136.03802033841</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033841</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
-        <v>44136.03802033841</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="O5" t="n">
-        <v>44136.03802033841</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="P5" t="n">
         <v>44136.03802033842</v>
@@ -26524,46 +26524,46 @@
         <v>30452.94295793639</v>
       </c>
       <c r="C6" t="n">
+        <v>111222.3744894841</v>
+      </c>
+      <c r="D6" t="n">
         <v>111222.3744894842</v>
       </c>
-      <c r="D6" t="n">
-        <v>111222.3744894841</v>
-      </c>
       <c r="E6" t="n">
-        <v>-144322.5075592278</v>
+        <v>-138050.4754428688</v>
       </c>
       <c r="F6" t="n">
-        <v>225112.7915735524</v>
+        <v>231384.8236899112</v>
       </c>
       <c r="G6" t="n">
-        <v>225112.7915735523</v>
+        <v>231384.8236899115</v>
       </c>
       <c r="H6" t="n">
-        <v>225112.7915735526</v>
+        <v>231384.8236899115</v>
       </c>
       <c r="I6" t="n">
-        <v>225112.7915735524</v>
+        <v>231384.8236899113</v>
       </c>
       <c r="J6" t="n">
-        <v>162052.8489744459</v>
+        <v>168324.8810908054</v>
       </c>
       <c r="K6" t="n">
-        <v>225112.7915735521</v>
+        <v>231384.8236899112</v>
       </c>
       <c r="L6" t="n">
-        <v>225112.7915735522</v>
+        <v>231384.8236899112</v>
       </c>
       <c r="M6" t="n">
-        <v>133098.546292459</v>
+        <v>139370.5784088181</v>
       </c>
       <c r="N6" t="n">
-        <v>225112.7915735522</v>
+        <v>231384.8236899112</v>
       </c>
       <c r="O6" t="n">
-        <v>225112.7915735521</v>
+        <v>231384.8236899112</v>
       </c>
       <c r="P6" t="n">
-        <v>225112.7915735524</v>
+        <v>231384.8236899112</v>
       </c>
     </row>
   </sheetData>
@@ -26755,28 +26755,28 @@
         <v>322.6158759445108</v>
       </c>
       <c r="H3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="I3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="J3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="K3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="L3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="M3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="N3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="O3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="P3" t="n">
         <v>322.6158759445108</v>
@@ -26810,25 +26810,25 @@
         <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
-        <v>610.2469066570408</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="J4" t="n">
-        <v>610.2469066570408</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="K4" t="n">
-        <v>610.2469066570408</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="L4" t="n">
-        <v>610.2469066570408</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
-        <v>610.2469066570408</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="O4" t="n">
-        <v>610.2469066570408</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="P4" t="n">
         <v>610.2469066570409</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>37.33790226801005</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,19 +27460,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27511,16 +27511,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>177.6520972238915</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27554,13 +27554,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>144.6688768646272</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>119.7495544039028</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>310.9156916318736</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>374.8264583819999</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,13 +27697,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,13 +27712,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.18418061884677</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>122.2677307085221</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>213.1087345205756</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>351.1641048164582</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>185.7512002249993</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>84.24788291858343</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>87.95670792528455</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28016,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>40.41943799383367</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>38.23792762219048</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K18" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,10 +32466,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H20" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J20" t="n">
         <v>110.0768611093283</v>
@@ -32478,31 +32478,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L20" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M20" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O20" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P20" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q20" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517336</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S20" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H21" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K21" t="n">
         <v>112.0542330627269</v>
@@ -32572,19 +32572,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R21" t="n">
-        <v>43.08443716858958</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T21" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
@@ -32636,31 +32636,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L22" t="n">
-        <v>86.49278746223817</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P22" t="n">
-        <v>70.36199366501259</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R22" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T22" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
         <v>0.03173270910929617</v>
@@ -32703,10 +32703,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H23" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J23" t="n">
         <v>110.0768611093283</v>
@@ -32715,31 +32715,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L23" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M23" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O23" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P23" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q23" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517336</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S23" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H24" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K24" t="n">
         <v>112.0542330627269</v>
@@ -32809,19 +32809,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858958</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T24" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
@@ -32873,31 +32873,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223817</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P25" t="n">
-        <v>70.36199366501259</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R25" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T25" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
         <v>0.03173270910929617</v>
@@ -32940,10 +32940,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H26" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J26" t="n">
         <v>110.0768611093283</v>
@@ -32952,31 +32952,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L26" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M26" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O26" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P26" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q26" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517336</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S26" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H27" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K27" t="n">
         <v>112.0542330627269</v>
@@ -33046,19 +33046,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R27" t="n">
-        <v>43.08443716858958</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T27" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
@@ -33110,31 +33110,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L28" t="n">
-        <v>86.49278746223817</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P28" t="n">
-        <v>70.36199366501259</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R28" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T28" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
         <v>0.03173270910929617</v>
@@ -33177,10 +33177,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H29" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J29" t="n">
         <v>110.0768611093283</v>
@@ -33189,31 +33189,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L29" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M29" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O29" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P29" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q29" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517336</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S29" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H30" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K30" t="n">
         <v>112.0542330627269</v>
@@ -33283,19 +33283,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R30" t="n">
-        <v>43.08443716858958</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T30" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
@@ -33347,31 +33347,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L31" t="n">
-        <v>86.49278746223817</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P31" t="n">
-        <v>70.36199366501259</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R31" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T31" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
         <v>0.03173270910929617</v>
@@ -33414,10 +33414,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H32" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J32" t="n">
         <v>110.0768611093283</v>
@@ -33426,31 +33426,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L32" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M32" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O32" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P32" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q32" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517336</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S32" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H33" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K33" t="n">
         <v>112.0542330627269</v>
@@ -33520,19 +33520,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R33" t="n">
-        <v>43.08443716858958</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T33" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
@@ -33584,31 +33584,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L34" t="n">
-        <v>86.49278746223817</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P34" t="n">
-        <v>70.36199366501259</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R34" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T34" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
         <v>0.03173270910929617</v>
@@ -33651,10 +33651,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H35" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J35" t="n">
         <v>110.0768611093283</v>
@@ -33663,31 +33663,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L35" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M35" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O35" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P35" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q35" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517336</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S35" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H36" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K36" t="n">
         <v>112.0542330627269</v>
@@ -33757,19 +33757,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R36" t="n">
-        <v>43.08443716858958</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T36" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
@@ -33821,31 +33821,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L37" t="n">
-        <v>86.49278746223817</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P37" t="n">
-        <v>70.36199366501259</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R37" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T37" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
         <v>0.03173270910929617</v>
@@ -33888,10 +33888,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H38" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J38" t="n">
         <v>110.0768611093283</v>
@@ -33900,31 +33900,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L38" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M38" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N38" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O38" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P38" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q38" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517336</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S38" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H39" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K39" t="n">
         <v>112.0542330627269</v>
@@ -33994,19 +33994,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R39" t="n">
-        <v>43.08443716858958</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T39" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
@@ -34058,31 +34058,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L40" t="n">
-        <v>86.49278746223817</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P40" t="n">
-        <v>70.36199366501259</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R40" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T40" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U40" t="n">
         <v>0.03173270910929617</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H41" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K41" t="n">
         <v>164.9766803203078</v>
       </c>
       <c r="L41" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M41" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O41" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P41" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q41" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517336</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S41" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T41" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H42" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K42" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L42" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34231,19 +34231,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R42" t="n">
-        <v>43.08443716858958</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T42" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I43" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K43" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L43" t="n">
-        <v>86.49278746223817</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P43" t="n">
-        <v>70.36199366501259</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R43" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S43" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T43" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35257,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,10 +35266,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009466</v>
@@ -35497,7 +35497,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>468.0345334781882</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
         <v>528.4798964831782</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
-        <v>257.7341181179921</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
         <v>499.39668221774</v>
@@ -35740,7 +35740,7 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P15" t="n">
         <v>316.9982669508155</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L18" t="n">
-        <v>192.9196850695263</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L20" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N20" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O20" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P20" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q20" t="n">
         <v>130.0651205780292</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.81443304846579</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K21" t="n">
-        <v>207.3158823613949</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36211,7 +36211,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36290,13 +36290,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N22" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O22" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L23" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N23" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O23" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P23" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q23" t="n">
         <v>130.0651205780292</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846579</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009465</v>
@@ -36445,10 +36445,10 @@
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>309.3596570595955</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36527,13 +36527,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N25" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O25" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L26" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N26" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O26" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P26" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q26" t="n">
         <v>130.0651205780292</v>
@@ -36679,7 +36679,7 @@
         <v>238.6780311009465</v>
       </c>
       <c r="L27" t="n">
-        <v>257.7341181179913</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
         <v>499.3966822177399</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36764,13 +36764,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N28" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O28" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L29" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N29" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O29" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P29" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q29" t="n">
         <v>130.0651205780292</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>113.4554389912679</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L30" t="n">
-        <v>382.95671022767</v>
+        <v>257.7341181179922</v>
       </c>
       <c r="M30" t="n">
         <v>499.3966822177399</v>
@@ -37001,13 +37001,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N31" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O31" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L32" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N32" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O32" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P32" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q32" t="n">
         <v>130.0651205780292</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.81443304846579</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009465</v>
+        <v>48.64100594280298</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37159,7 +37159,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>338.4428713250338</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37238,13 +37238,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N34" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O34" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L35" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N35" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O35" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P35" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q35" t="n">
         <v>130.0651205780292</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.81443304846579</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009465</v>
@@ -37396,7 +37396,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37475,13 +37475,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N37" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O37" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L38" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N38" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O38" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P38" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q38" t="n">
         <v>130.0651205780292</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.81443304846579</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009465</v>
@@ -37633,7 +37633,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N39" t="n">
-        <v>338.4428713250338</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37712,13 +37712,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N40" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O40" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L41" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N41" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O41" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P41" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q41" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780289</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846579</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>338.4428713250338</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>316.9982669508155</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M43" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N43" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O43" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.45228430891401</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
